--- a/src/api/data/为什么选择鸿升.xlsx
+++ b/src/api/data/为什么选择鸿升.xlsx
@@ -63,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -75,13 +75,18 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +96,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -161,19 +172,19 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -196,6 +207,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -212,10 +224,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -409,14 +421,15 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -431,35 +444,29 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -712,14 +719,20 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1008,7 +1021,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1291,9 +1304,7 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>

--- a/src/api/data/为什么选择鸿升.xlsx
+++ b/src/api/data/为什么选择鸿升.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>zh</t>
   </si>
@@ -54,39 +61,231 @@
   </si>
   <si>
     <t>8、员工周年及特殊场合津贴</t>
+  </si>
+  <si>
+    <t>您考慮與我們共事的原因</t>
+  </si>
+  <si>
+    <t>請注意條件會因地區而异</t>
+  </si>
+  <si>
+    <t>在鴻昇集團，我們精心照料員工。我們堅信員工的辛苦工作和風險是成功的推動力，並持續尋求回饋他們的途徑。我們的員工享受著競爭性的薪酬和優越的福利，並在互相尊重和專業的工作環境中工作。您的專注與才智為集團公司的成功做出貢獻。作為回報，在不斷强大面向未來的公司中我們為您提供獨一無二的職位。</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、超過三十年的持續自然增長</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、高度自治的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家族式企業</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、誘人的醫療及待遇福利待遇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、單層結構</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、勞工流失率低</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、不拘禮節的工作環境</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、合作銀行的優惠條件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、員工周年及特殊場合津貼</t>
+    </r>
+  </si>
+  <si>
+    <t>Why you should consider working for us :</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(please note that conditions may vary by district)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>At Hung Shang, we make sure our employees are well taken care of. We recognize that their hard work and dedication are the driving force behind our success, and we continually look for additional ways to reward them. Our employees enjoy competitive pay and excellent benefits, along with a positive work environment built on mutual respect and professionalism.
+Your dedication and talent make a difference in our company group’s success. In exchange we offer you a unique position in an expanding and future-oriented company.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuous organic growth over the three decades.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100% family-owned enterprise with high degree of autonomy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attractive benefit packages</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flat hierarchy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>low labor turnover</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>informal working atmosphere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>favorable conditions with our partner bank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee anniversaries and bonuses for special occasions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,12 +295,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -161,60 +354,125 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -224,10 +482,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="404040"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -340,7 +598,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -349,7 +607,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -358,7 +616,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -421,18 +679,17 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -440,33 +697,39 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="31034"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -489,7 +752,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -515,7 +778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -541,7 +804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -567,7 +830,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -593,7 +856,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -619,7 +882,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -645,7 +908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -671,7 +934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -697,7 +960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -710,32 +973,32 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="6350" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="50000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -754,7 +1017,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -780,7 +1043,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -806,7 +1069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -832,7 +1095,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -858,7 +1121,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -884,7 +1147,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -910,7 +1173,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -936,7 +1199,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +1225,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +1251,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,9 +1264,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1017,26 +1286,26 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,7 +1335,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +1361,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,7 +1387,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,7 +1413,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,7 +1439,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,7 +1465,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1491,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,7 +1517,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1543,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,174 +1556,226 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="36.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" ht="36.35" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" ht="260.35" customHeight="1">
-      <c r="A4" t="s" s="5">
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="260.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" ht="36.35" customHeight="1">
-      <c r="A5" t="s" s="5">
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" ht="36.35" customHeight="1">
-      <c r="A6" t="s" s="5">
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" ht="36.35" customHeight="1">
-      <c r="A7" t="s" s="5">
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" t="s" s="5">
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" t="s" s="5">
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" ht="36.35" customHeight="1">
-      <c r="A10" t="s" s="5">
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" ht="36.35" customHeight="1">
-      <c r="A11" t="s" s="5">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" ht="36.35" customHeight="1">
-      <c r="A12" t="s" s="5">
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
+      <c r="B12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" ht="20.35" customHeight="1">
+    <row r="14" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" ht="20.35" customHeight="1">
+    <row r="15" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" ht="20.35" customHeight="1">
+    <row r="16" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" ht="20.35" customHeight="1">
+    <row r="17" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" ht="20.35" customHeight="1">
+    <row r="18" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" ht="20.35" customHeight="1">
+    <row r="19" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" ht="20.35" customHeight="1">
+    <row r="20" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" ht="20.35" customHeight="1">
+    <row r="21" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" ht="20.35" customHeight="1">
+    <row r="22" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/api/data/为什么选择鸿升.xlsx
+++ b/src/api/data/为什么选择鸿升.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>zh</t>
   </si>
@@ -30,259 +25,182 @@
     <t>en</t>
   </si>
   <si>
-    <t>您考虑与我们共事的原因</t>
-  </si>
-  <si>
     <t>请注意条件会因地区而异</t>
   </si>
   <si>
-    <t>在鸿昇集团，我们精心照料员工。我们坚信员工的辛苦工作和风险是成功的推动力，并持续寻求回馈他们的途径。我们的员工享受着竞争性的薪酬和优越的福利，并在互相尊重和专业的工作环境中工作。您的专注与才智为集团公司的成功做出贡献。作为回报，在不断强大面向未来的公司中我们为您提供独一无二的职位。</t>
-  </si>
-  <si>
-    <t>1、超过三十年的持续自然增长</t>
-  </si>
-  <si>
-    <t>2、高度自治的100%家族式企业</t>
-  </si>
-  <si>
-    <t>3、诱人的医疗及待遇福利待遇</t>
-  </si>
-  <si>
-    <t>4、单层结构</t>
-  </si>
-  <si>
-    <t>5、劳工流失率低</t>
-  </si>
-  <si>
-    <t>6、不拘礼节的工作环境</t>
-  </si>
-  <si>
-    <t>7、合作银行的优惠条件</t>
-  </si>
-  <si>
-    <t>8、员工周年及特殊场合津贴</t>
-  </si>
-  <si>
-    <t>您考慮與我們共事的原因</t>
-  </si>
-  <si>
     <t>請注意條件會因地區而异</t>
   </si>
   <si>
-    <t>在鴻昇集團，我們精心照料員工。我們堅信員工的辛苦工作和風險是成功的推動力，並持續尋求回饋他們的途徑。我們的員工享受著競爭性的薪酬和優越的福利，並在互相尊重和專業的工作環境中工作。您的專注與才智為集團公司的成功做出貢獻。作為回報，在不斷强大面向未來的公司中我們為您提供獨一無二的職位。</t>
+    <t>海納百川，唯才是舉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善的員工培訓機制和發展體制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海纳百川，唯才是举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們堅信員工是我們最重要的財富，沒有員工的持續支持，我們無法為客戶提供優質專業的服務。在鴻昇集團高速發展的同時，也很重視人才的培養和發展。我們堅持幫助員工實現更高層次的自我價值，以此為員工帶來優厚的福利待遇，在互相尊重和專業的工作環境中，推動員工與公司的共同成長。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们坚信员工是我们最重要的财富，没有员工的持续支持，我们无法为客户提供优质专业的服务。在鸿昇集团高速发展的同时，也很重视人才的培养和发展。我们坚持帮助员工实现更高的自我价值，以此为员工带来优厚的福利待遇，在互相尊重和专业的工作环境中，推动员工与公司的共同成长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why you should consider working for us :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(please note that conditions may vary by district)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>At Hung Shang, we make sure our employees are well taken care of. We recognize that their hard work and dedication are the driving force behind our success, and we continually look for additional ways to reward them. Our employees enjoy competitive pay and excellent benefits, along with a positive work environment built on mutual respect and professionalism.
+Your dedication and talent make a difference in our company group’s success. In exchange we offer you a unique position in an expanding and future-oriented company.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuous organic growth over the three decades.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100% family-owned enterprise with high degree of autonomy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attractive benefit packages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flat hierarchy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low labor turnover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>informal working atmosphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favorable conditions with our partner bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee anniversaries and bonuses for special occasions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優厚的福利待遇和醫療保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>1</t>
+      <t>30</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、超過三十年的持續自然增長</t>
+      <t>餘年的持續發展和巨大的發展前景</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以人為本，包容、開發、互相尊重的良好工作環境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂觀積極的企業文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐观积极的企业文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>2</t>
+      <t>30</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、高度自治的</t>
+      <t>余年的持续发展和巨大的发展前景</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>100%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>家族式企業</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、誘人的醫療及待遇福利待遇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、單層結構</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、勞工流失率低</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、不拘禮節的工作環境</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、合作銀行的優惠條件</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、員工周年及特殊場合津貼</t>
-    </r>
-  </si>
-  <si>
-    <t>Why you should consider working for us :</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(please note that conditions may vary by district)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>At Hung Shang, we make sure our employees are well taken care of. We recognize that their hard work and dedication are the driving force behind our success, and we continually look for additional ways to reward them. Our employees enjoy competitive pay and excellent benefits, along with a positive work environment built on mutual respect and professionalism.
-Your dedication and talent make a difference in our company group’s success. In exchange we offer you a unique position in an expanding and future-oriented company.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>continuous organic growth over the three decades.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100% family-owned enterprise with high degree of autonomy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>attractive benefit packages</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>flat hierarchy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>low labor turnover</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>informal working atmosphere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>favorable conditions with our partner bank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee anniversaries and bonuses for special occasions</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上的员工培训机制和发展体制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优厚的福利待遇和医疗保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以人为本，包容、开放、互相尊重的良好工作环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -358,32 +276,50 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1574,7 +1510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1582,198 +1518,189 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="63.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="63.28515625" style="13" customWidth="1"/>
+    <col min="4" max="256" width="16.28515625" style="2" customWidth="1"/>
+    <col min="257" max="16384" width="16.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="20.65" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="36.6" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="36.4" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="169.5" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="36.4" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="36.4" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="36.4" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="260.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="22.35" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="22.35" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="36.4" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="36.4" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="36.4" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+    </row>
+    <row r="13" spans="1:3" ht="20.45" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" ht="20.45" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" ht="20.45" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" ht="20.45" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" ht="20.45" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" ht="20.45" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" ht="20.45" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:3" ht="20.45" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3" ht="20.45" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" ht="20.45" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/src/api/data/为什么选择鸿升.xlsx
+++ b/src/api/data/为什么选择鸿升.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\hongsheng\src\api\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3496A6-7A8C-4756-B79F-2361C8567563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="50" windowWidth="15960" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -40,10 +46,6 @@
   </si>
   <si>
     <t>海纳百川，唯才是举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我們堅信員工是我們最重要的財富，沒有員工的持續支持，我們無法為客戶提供優質專業的服務。在鴻昇集團高速發展的同時，也很重視人才的培養和發展。我們堅持幫助員工實現更高層次的自我價值，以此為員工帶來優厚的福利待遇，在互相尊重和專業的工作環境中，推動員工與公司的共同成長。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -155,12 +157,15 @@
     <t>以人为本，包容、开放、互相尊重的良好工作环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>我們堅信員工是我們最重要的財富，沒有員工的持續支持，我們無法為客戶提供優質專業的服務。在鸿昇集團高速發展的同時，也很重視人才的培養和發展。我們堅持幫助員工實現更高層次的自我價值，以此為員工帶來優厚的福利待遇，在互相尊重和專業的工作環境中，推動員工與公司的共同成長。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1510,7 +1515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1518,18 +1523,18 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="63.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="63.28515625" style="13" customWidth="1"/>
-    <col min="4" max="256" width="16.28515625" style="2" customWidth="1"/>
-    <col min="257" max="16384" width="16.28515625" style="3"/>
+    <col min="1" max="2" width="63.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="63.26953125" style="13" customWidth="1"/>
+    <col min="4" max="256" width="16.26953125" style="2" customWidth="1"/>
+    <col min="257" max="16384" width="16.26953125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.65" customHeight="1">
+    <row r="1" spans="1:3" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="36.6" customHeight="1">
+    <row r="2" spans="1:3" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1548,10 +1553,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="36.4" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1559,142 +1564,142 @@
         <v>4</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="169.5" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="12" t="s">
+    <row r="5" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="36.4" customHeight="1">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="36.4" customHeight="1">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="36.4" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:3" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="36.4" customHeight="1">
+    <row r="10" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="36.4" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="36.4" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
       <c r="C12" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20.45" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:3" ht="20.45" customHeight="1">
+    <row r="14" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="20.45" customHeight="1">
+    <row r="15" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="1:3" ht="20.45" customHeight="1">
+    <row r="16" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" spans="1:3" ht="20.45" customHeight="1">
+    <row r="17" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" ht="20.45" customHeight="1">
+    <row r="18" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="12"/>
     </row>
-    <row r="19" spans="1:3" ht="20.45" customHeight="1">
+    <row r="19" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="12"/>
     </row>
-    <row r="20" spans="1:3" ht="20.45" customHeight="1">
+    <row r="20" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="1:3" ht="20.45" customHeight="1">
+    <row r="21" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="20.45" customHeight="1">
+    <row r="22" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="12"/>
